--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_19-20.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_19-20.xlsx
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>23:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>177:0</t>
   </si>
   <si>
     <t>فازلين بيور كبير</t>
@@ -2589,17 +2595,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2607,7 +2613,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2615,13 +2621,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2647,11 +2653,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2667,17 +2673,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2685,7 +2691,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2693,13 +2699,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2711,7 +2717,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2719,13 +2725,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2737,7 +2743,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2745,51 +2751,77 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="75" ht="26.25" customHeight="1">
-      <c r="K75" s="10">
-        <v>4745.8400000000001</v>
-      </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="11">
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>72</v>
+      </c>
+      <c t="s" r="B75" s="7">
         <v>108</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c t="s" r="F76" s="12">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c t="s" r="H75" s="8">
         <v>109</v>
       </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="13"/>
-      <c t="s" r="I76" s="14">
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9">
+        <v>65</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c t="s" r="N75" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="K76" s="10">
+        <v>4759.8400000000001</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="11">
         <v>110</v>
       </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c t="s" r="F77" s="12">
+        <v>111</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+      <c t="s" r="I77" s="14">
+        <v>112</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="224">
+  <mergeCells count="227">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3010,10 +3042,13 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="I77:N77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
